--- a/Composants/Commande Farnell.xlsx
+++ b/Composants/Commande Farnell.xlsx
@@ -822,7 +822,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D11" sqref="D11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B17" s="22">
         <f ca="1">TODAY()</f>
-        <v>42036</v>
+        <v>42037</v>
       </c>
       <c r="C17" s="21"/>
       <c r="I17" s="21"/>

--- a/Composants/Commande Farnell.xlsx
+++ b/Composants/Commande Farnell.xlsx
@@ -114,10 +114,10 @@
     <t>BARANTN</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTICOMP - MCSM1W25R0FR - WIREWOUND RESISTOR, 25 OHM, 1W, 1% </t>
-  </si>
-  <si>
     <t xml:space="preserve">TXC - 9C-25.000MEEJ-T - XTAL, 25.000MHZ, 18PF, SMD, HC-49S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE CONNECTIVITY - 9-1879212-9 - RESISTANCE PRECISION 25R5 0.1% 0402 </t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:F11"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,32 +1016,32 @@
     <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="17">
-        <v>1675211</v>
+        <v>2330577</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="19"/>
       <c r="H13" s="25">
-        <v>1.24</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="I13" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" si="0"/>
-        <v>2.48</v>
+        <v>4.58</v>
       </c>
       <c r="K13" s="24">
         <f t="shared" si="1"/>
-        <v>0.496</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="L13" s="24">
         <f t="shared" ref="L13" si="2">K13+J13</f>
-        <v>2.976</v>
+        <v>5.4960000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
@@ -1089,15 +1089,15 @@
       <c r="I15" s="31"/>
       <c r="J15" s="26">
         <f>SUM(J11:J13)</f>
-        <v>4.3949999999999996</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="K15" s="27">
         <f>J15*0.2</f>
-        <v>0.879</v>
+        <v>1.2990000000000002</v>
       </c>
       <c r="L15" s="28">
         <f>J15+K15</f>
-        <v>5.2739999999999991</v>
+        <v>7.7940000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B17" s="22">
         <f ca="1">TODAY()</f>
-        <v>42037</v>
+        <v>42055</v>
       </c>
       <c r="C17" s="21"/>
       <c r="I17" s="21"/>

--- a/Composants/Commande Farnell.xlsx
+++ b/Composants/Commande Farnell.xlsx
@@ -822,7 +822,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B17" s="22">
         <f ca="1">TODAY()</f>
-        <v>42055</v>
+        <v>42059</v>
       </c>
       <c r="C17" s="21"/>
       <c r="I17" s="21"/>
